--- a/test/data/prostate.xlsx
+++ b/test/data/prostate.xlsx
@@ -60,7 +60,27 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/apinatomy-models/master/models/wbrcm/source/wbrcm.json, https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_prostate.json</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_prostate.json</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -973,7 +993,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1003,6 +1023,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -1061,11 +1088,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1075,6 +1102,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1099,7 +1130,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2658,7 +2689,7 @@
       <c r="A2" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2666,7 +2697,7 @@
       <c r="A3" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2674,7 +2705,7 @@
       <c r="A4" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2682,7 +2713,7 @@
       <c r="A5" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2690,7 +2721,7 @@
       <c r="A6" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2698,7 +2729,7 @@
       <c r="A7" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2706,7 +2737,7 @@
       <c r="A8" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2714,7 +2745,7 @@
       <c r="A9" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2722,7 +2753,7 @@
       <c r="A10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2730,7 +2761,7 @@
       <c r="A11" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2738,7 +2769,7 @@
       <c r="A12" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2746,7 +2777,7 @@
       <c r="A13" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2754,7 +2785,7 @@
       <c r="A14" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>312</v>
       </c>
     </row>

--- a/test/data/prostate.xlsx
+++ b/test/data/prostate.xlsx
@@ -60,27 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_prostate.json</t>
-    </r>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json, https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_prostate.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -993,7 +973,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1023,13 +1003,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -1088,11 +1061,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,10 +1075,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,7 +1099,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1179,6 +1148,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2689,7 +2661,7 @@
       <c r="A2" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2697,7 +2669,7 @@
       <c r="A3" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2705,7 +2677,7 @@
       <c r="A4" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2713,7 +2685,7 @@
       <c r="A5" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2721,7 +2693,7 @@
       <c r="A6" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2729,7 +2701,7 @@
       <c r="A7" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2737,7 +2709,7 @@
       <c r="A8" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2745,7 +2717,7 @@
       <c r="A9" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2753,7 +2725,7 @@
       <c r="A10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2761,7 +2733,7 @@
       <c r="A11" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2769,7 +2741,7 @@
       <c r="A12" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2777,7 +2749,7 @@
       <c r="A13" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2785,7 +2757,7 @@
       <c r="A14" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>312</v>
       </c>
     </row>

--- a/test/data/prostate.xlsx
+++ b/test/data/prostate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="314">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -60,7 +60,10 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json, https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_prostate.json</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/neuroview/test/data/wbrcm-model.json, https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/neuroview/test/data/snapshot_prostate.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -1065,13 +1068,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1096,38 +1111,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="80.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -1143,14 +1160,21 @@
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1178,190 +1202,190 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1392,649 +1416,649 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2065,412 +2089,412 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>149</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2501,125 +2525,125 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2650,115 +2674,115 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>288</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>292</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>294</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>296</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>298</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>300</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>302</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>304</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>306</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>308</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>310</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>312</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/prostate.xlsx
+++ b/test/data/prostate.xlsx
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
